--- a/biology/Zoologie/Dinornithiformes/Dinornithiformes.xlsx
+++ b/biology/Zoologie/Dinornithiformes/Dinornithiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinornithidae
 Les Dinornithiformes sont un ordre d'oiseaux coureurs aptères, aujourd'hui disparus. Dans la classification d'Howard et Moore, cet ordre est constitué de deux familles. Pour The Paleobiology Database, il n'est constitué que de la famille des Dinornithidae (à laquelle sont rattachées les espèces de la famille des Emeidae).
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces sont nommées moas. Ce sont des oiseaux fossiles et inaptes au vol, de Nouvelle-Zélande. Ils pesaient de 12 à 250 kilogrammes selon les espèces et certains mesuraient jusqu'à 3,6 m de haut. Les moas ne représentent que des espèces éteintes. Ils  sont les seuls oiseaux connus à être totalement dépourvus d'ailes. Toutes les espèces de moas ont disparu après l'arrivée des ancêtres des Maoris dans l'archipel au XIe siècle.
 </t>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot dinornithidés dérive de deux mots grecs, δεινός (deinos : « formidable, terrible ») et ορνις (ornis : oiseau) et signifie donc « oiseaux terribles », en référence à leur taille hors du commun. Cet ordre semble avoir été monogénérique (Dinornis), les autres moas étant classés dans la famille des éméidés, plus petits.
 </t>
@@ -574,9 +590,11 @@
           <t>Histoire et disparition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arrivés au XIIIe siècle, les Maoris pratiquèrent une chasse intensive aux moas et une récolte systématique de leurs œufs. Les dépôts massifs d’ossements retrouvés par les archéologues ont confirmé les hypothèses des zoologistes : les neuf espèces de dinornithidae qui prospéraient jusqu’alors ont rapidement disparu, incapables de résister à ce nouveau prédateur auquel elles ne pouvaient pas s’adapter[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arrivés au XIIIe siècle, les Maoris pratiquèrent une chasse intensive aux moas et une récolte systématique de leurs œufs. Les dépôts massifs d’ossements retrouvés par les archéologues ont confirmé les hypothèses des zoologistes : les neuf espèces de dinornithidae qui prospéraient jusqu’alors ont rapidement disparu, incapables de résister à ce nouveau prédateur auquel elles ne pouvaient pas s’adapter.
 Avant l’être humain, les moas avaient pour prédateur l’aigle géant de Haast, qui est le plus grand aigle connu, et qui a disparu en même temps que ses proies.
 </t>
         </is>
@@ -608,8 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Légende :  † = éteint.
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Légende :  † = éteint.
 Dans la classification d'Howard et Moore :
 famille Dinornithidae
 famille Emeidae
@@ -632,10 +655,44 @@
 Pachyornis australis† Oliver, 1949
 Megalapterygidae
 Megalapteryx†
-Megalapteryx didinus† Owen, 1883
-Phylogénie
-Le cladogramme ci-dessous est une phylogénie des Palaeognathae générée par Mitchell (2014)[2] avec quelques noms de clade d'après Yuri et al. (2013)[3]. Il fournit la position des moas (Dinornithiformes) dans le contexte plus large des oiseaux « à mâchoires anciennes » (Palaeognathae) :
-Le cladogramme ci-dessous donne une phylogénie plus détaillée, au niveau de l'espèce, de la branche moa (Dinornithiformes) des oiseaux « à mâchoires anciennes » (Palaeognathae) illustrés ci-dessus[4] :
+Megalapteryx didinus† Owen, 1883</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dinornithiformes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinornithiformes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous est une phylogénie des Palaeognathae générée par Mitchell (2014) avec quelques noms de clade d'après Yuri et al. (2013). Il fournit la position des moas (Dinornithiformes) dans le contexte plus large des oiseaux « à mâchoires anciennes » (Palaeognathae) :
+Le cladogramme ci-dessous donne une phylogénie plus détaillée, au niveau de l'espèce, de la branche moa (Dinornithiformes) des oiseaux « à mâchoires anciennes » (Palaeognathae) illustrés ci-dessus :
 </t>
         </is>
       </c>
